--- a/12-14-25 to 12-20-25 Madison Schedule.xlsx
+++ b/12-14-25 to 12-20-25 Madison Schedule.xlsx
@@ -2579,14 +2579,10 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
@@ -3125,21 +3121,9 @@
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>Gray Van</t>
-        </is>
-      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>

--- a/12-14-25 to 12-20-25 Madison Schedule.xlsx
+++ b/12-14-25 to 12-20-25 Madison Schedule.xlsx
@@ -2733,7 +2733,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -2788,7 +2788,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>DELAVAN LIQUOR &amp; SMOKE</t>
+          <t>DHILLON'S BP, NEOSHO</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -2880,7 +2880,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>832 E GENEVA ST</t>
+          <t>446 S SCHUYER ST</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -2952,7 +2952,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/XqTsBwWX6hXAciqP7</t>
+          <t>https://goo.gl/maps/cqKUT41W2wM2</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -2997,11 +2997,7 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>*6:00 am IL office leave time</t>
-        </is>
-      </c>
+      <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
@@ -3031,9 +3027,21 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
@@ -3072,7 +3080,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -3080,11 +3088,7 @@
           <t>Bri</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
@@ -3121,9 +3125,21 @@
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Kirsten</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
@@ -3160,9 +3176,21 @@
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
@@ -3243,11 +3271,7 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -3296,7 +3320,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve">MODAS-SCAN </t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3347,7 +3371,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>KELLEY #10, CHERRYVALE MOBIL, ROCKFORD</t>
+          <t xml:space="preserve">MODAS-SCAN </t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3398,7 +3422,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>1736 PERRYVILLE RD</t>
+          <t>KELLEY #10, CHERRYVALE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3433,7 +3457,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TGUB5JyPmsz</t>
+          <t>1736 PERRYVILLE RD</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -3480,7 +3504,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t>https://goo.gl/maps/TGUB5JyPmsz</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3523,7 +3547,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>AARON IS THE DM</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -3564,7 +3588,11 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>AARON IS THE DM</t>
+        </is>
+      </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
@@ -3602,21 +3630,9 @@
       </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>Camry 3 available, Equip</t>
-        </is>
-      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
@@ -3660,15 +3676,19 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Davan</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Camry 3 available, Equip</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
@@ -3711,12 +3731,12 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Davan</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -3750,12 +3770,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -3789,12 +3809,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -3826,8 +3846,16 @@
       </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>

--- a/12-14-25 to 12-20-25 Madison Schedule.xlsx
+++ b/12-14-25 to 12-20-25 Madison Schedule.xlsx
@@ -1136,10 +1136,15 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
@@ -1208,15 +1213,10 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1352,10 +1352,15 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
@@ -1420,13 +1425,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Silver Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -1477,7 +1481,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1533,7 +1537,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1584,7 +1588,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1635,7 +1639,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1683,21 +1687,9 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">

--- a/12-14-25 to 12-20-25 Madison Schedule.xlsx
+++ b/12-14-25 to 12-20-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y91"/>
+  <dimension ref="A1:Y90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Davan</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -3806,7 +3806,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -3838,16 +3838,8 @@
       </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
@@ -4048,7 +4040,8 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+until 11:00</t>
         </is>
       </c>
       <c r="L76" t="inlineStr"/>
@@ -4419,7 +4412,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Davan</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
@@ -4454,7 +4447,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K89" t="inlineStr"/>
@@ -4489,7 +4482,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
@@ -4508,41 +4501,6 @@
       <c r="X90" t="inlineStr"/>
       <c r="Y90" t="inlineStr"/>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr"/>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
